--- a/Nodes.xlsx
+++ b/Nodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnwob\GitHub\ShearFlowThinSections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EEE393-2DA9-4E41-A05B-163EB0577A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDC6B5A-0C82-4193-B1A4-410C033DC470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="26835" windowHeight="16200" xr2:uid="{821B9952-1932-4904-A940-289EB0193B70}"/>
+    <workbookView xWindow="5790" yWindow="3615" windowWidth="28800" windowHeight="15885" xr2:uid="{821B9952-1932-4904-A940-289EB0193B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530CE899-4892-4ADA-BE4D-05B25E437CAD}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G4" sqref="G4:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,10 +440,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>-0.5</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,10 +462,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C4">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,10 +473,10 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
         <v>0.5</v>
-      </c>
-      <c r="C5">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -495,10 +495,54 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="C7">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-0.25</v>
+      </c>
+      <c r="C9">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
